--- a/PalindromeCheckerTest_06_Khang/TestData/TestData.xlsx
+++ b/PalindromeCheckerTest_06_Khang/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
     <x:t>ExpectedOutput</x:t>
   </x:si>
   <x:si>
-    <x:t>madam</x:t>
+    <x:t>66x66</x:t>
   </x:si>
   <x:si>
     <x:t>True</x:t>
@@ -437,7 +437,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
@@ -453,7 +453,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/PalindromeCheckerTest_06_Khang/TestData/TestData.xlsx
+++ b/PalindromeCheckerTest_06_Khang/TestData/TestData.xlsx
@@ -38,12 +38,6 @@
   </x:si>
   <x:si>
     <x:t>aa   bb 2 d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aba</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -394,7 +388,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B7"/>
+  <x:dimension ref="A1:B5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -438,22 +432,6 @@
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
